--- a/2nd_sem/582_structurePerdiction/hw1/3.xlsx
+++ b/2nd_sem/582_structurePerdiction/hw1/3.xlsx
@@ -6070,7 +6070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G20"/>
     </sheetView>
   </sheetViews>
